--- a/TablesS2-S4.xlsx
+++ b/TablesS2-S4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fercaron/Documents/lab/triatomines/rev1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9075FF5-1DE9-0C4E-A7E1-A80FFD096083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F316D0-7CDA-104F-8F2B-7BEE06B96E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15420" activeTab="2" xr2:uid="{B8652D10-995B-9F4E-B100-A8B17D3D7538}"/>
   </bookViews>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2117,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
